--- a/static/download/2020/RP3_ERT_SU_2020_Jan_Nov.xlsx
+++ b/static/download/2020/RP3_ERT_SU_2020_Jan_Nov.xlsx
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="9">
-        <v>44179.0</v>
+        <v>44209.0</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>6</v>
